--- a/results/pvalue_SIDER_rare_target_AUPR+AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_rare_target_AUPR+AUROCperdrug.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43.321</t>
+          <t>21.75</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>112.663</t>
+          <t>29.036</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.795</t>
+          <t>9.791</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.215</t>
+          <t>8.548</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.028</t>
+          <t>0.093</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16.665</t>
+          <t>19.346</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18.412</t>
+          <t>22.877</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.275</t>
+          <t>15.593</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11.691</t>
+          <t>13.323</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.356</t>
+          <t>2.198</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
